--- a/biology/Histoire de la zoologie et de la botanique/Jean-Yves_Dubuisson/Jean-Yves_Dubuisson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Yves_Dubuisson/Jean-Yves_Dubuisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Yves Dubuisson est un botaniste français né en 1968 et actuellement[Quand ?] Professeur des universités à l'université Pierre-et-Marie-Curie à Paris.
 Il est spécialiste de phylogénie, de systématique botanique, de botanique tropicale et d'écologie évolutive. Il a surtout étudié la phylogénétique des Hymenophyllacées et leur évolution.
-Il travaille actuellement a l’Institut de Systématique, Évolution, Biodiversité du Muséum national d'histoire naturelle[1] en collaboration avec l'université Pierre-et-Marie-Curie. Il est responsable de plusieurs enseignements dont Écosystème et groupements végétaux, Histoire des lignées chlorophylliennes.
+Il travaille actuellement a l’Institut de Systématique, Évolution, Biodiversité du Muséum national d'histoire naturelle en collaboration avec l'université Pierre-et-Marie-Curie. Il est responsable de plusieurs enseignements dont Écosystème et groupements végétaux, Histoire des lignées chlorophylliennes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean-Yves Dubuisson est le coauteur de nombreux articles dont :
 avec Sabine Hennequin, Sophie Bary, Atsushi Ebihara, Élodie Boucheron-Dubuisson - Anatomical diversity and regressive evolution in trichomanoid filmy ferns (Hymenophyllaceae): A phylogenetic approach - Comptes Rendus Biologies, Volume 334, no 12 - Paris : Académie des Sciences, décembre 2011 - p. 880-895
